--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_219.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_219.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2019230769230769</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(32.874217, 40.885102)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(126.506, 141.245)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:02.980000', '0:00:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_276</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1441647597254004</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.9, 20.52)]</t>
+          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1904761904761905</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.66, 38.43)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.52, 11.6)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.279000', '0:00:16.531000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_190</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_127</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
-        </is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_168</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09166666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
+          <t>[['D', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.0, 45.32)]</t>
+          <t>[['G', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(46.06, 51.04)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:09.408834', '0:00:12.996317')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:15.388254', '0:00:19.382087')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08311603650586702</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.14, 110.26)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.24, 108.6)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:02.470042', '0:00:09.607823')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:18.013446', '0:00:21.856349')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(111.92, 115.36)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07774086378737541</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G/3', 'G:min/b3', 'D:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(64.294, 67.223)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.3, 5.85)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D10" t="inlineStr">
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[(61.6, 63.84)]</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'D/b7']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'F']]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(55.397573, 60.285374)]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.130022, 25.095075)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.920000', '0:01:06.100000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2548262548262548</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(144.085784, 149.240614)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(61.32, 63.7)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(28.450816, 36.229501)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:09.370997', '0:00:22.141972')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1099450274862569</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.16, 20.68)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(50.13, 55.78)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'B', 'E']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.92, 13.26)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(89.257527, 110.178707)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(33.92, 36.84)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.38, 12.5)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05852272727272727</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:7', 'D:7', 'D:7', 'G:7', 'G:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.01, 9.7)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.84, 27.65)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
